--- a/BackTest/2019-10-28 BackTest XMR.xlsx
+++ b/BackTest/2019-10-28 BackTest XMR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N125"/>
+  <dimension ref="A1:M125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>29.18782132132199</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>30.57182132132199</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>67050</v>
       </c>
       <c r="J3" t="n">
         <v>67050</v>
       </c>
-      <c r="K3" t="n">
-        <v>67050</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +521,23 @@
         <v>31.93182132132199</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>67300</v>
       </c>
       <c r="J4" t="n">
-        <v>67300</v>
-      </c>
-      <c r="K4" t="n">
         <v>67050</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +562,23 @@
         <v>31.58442132132199</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>67500</v>
       </c>
       <c r="J5" t="n">
-        <v>67500</v>
-      </c>
-      <c r="K5" t="n">
         <v>67050</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,22 +603,19 @@
         <v>32.71502132132199</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>67300</v>
       </c>
       <c r="J6" t="n">
         <v>67300</v>
       </c>
-      <c r="K6" t="n">
-        <v>67300</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -660,26 +640,23 @@
         <v>34.84562132132199</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>67400</v>
       </c>
       <c r="J7" t="n">
-        <v>67400</v>
-      </c>
-      <c r="K7" t="n">
         <v>67300</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -706,22 +683,19 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
         <v>67300</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -746,22 +720,19 @@
         <v>27.78282132132199</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>67550</v>
       </c>
       <c r="J9" t="n">
         <v>67550</v>
       </c>
-      <c r="K9" t="n">
-        <v>67550</v>
-      </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -788,22 +759,19 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
         <v>67550</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -828,26 +796,23 @@
         <v>27.78282132132199</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>67600</v>
       </c>
       <c r="J11" t="n">
-        <v>67600</v>
-      </c>
-      <c r="K11" t="n">
         <v>67550</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -874,16 +839,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -908,22 +870,19 @@
         <v>27.48862132132199</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>67700</v>
       </c>
       <c r="J13" t="n">
         <v>67700</v>
       </c>
-      <c r="K13" t="n">
-        <v>67700</v>
-      </c>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -948,24 +907,23 @@
         <v>27.62362132132199</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>67700</v>
-      </c>
-      <c r="L14" t="inlineStr">
+        <v>67650</v>
+      </c>
+      <c r="J14" t="n">
+        <v>67700</v>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -992,22 +950,19 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>67700</v>
-      </c>
-      <c r="L15" t="inlineStr">
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>67700</v>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1034,22 +989,19 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>67700</v>
-      </c>
-      <c r="L16" t="inlineStr">
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>67700</v>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1076,22 +1028,19 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>67700</v>
-      </c>
-      <c r="L17" t="inlineStr">
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>67700</v>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1118,22 +1067,19 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>67700</v>
-      </c>
-      <c r="L18" t="inlineStr">
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>67700</v>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1160,22 +1106,19 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>67700</v>
-      </c>
-      <c r="L19" t="inlineStr">
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>67700</v>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1202,22 +1145,19 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>67700</v>
-      </c>
-      <c r="L20" t="inlineStr">
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>67700</v>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1244,22 +1184,19 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>67700</v>
-      </c>
-      <c r="L21" t="inlineStr">
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>67700</v>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1286,22 +1223,19 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>67700</v>
-      </c>
-      <c r="L22" t="inlineStr">
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>67700</v>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1328,22 +1262,19 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>67700</v>
-      </c>
-      <c r="L23" t="inlineStr">
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>67700</v>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1370,22 +1301,19 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>67700</v>
-      </c>
-      <c r="L24" t="inlineStr">
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>67700</v>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1412,22 +1340,19 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>67700</v>
-      </c>
-      <c r="L25" t="inlineStr">
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>67700</v>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1454,22 +1379,19 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>67700</v>
-      </c>
-      <c r="L26" t="inlineStr">
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>67700</v>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1496,22 +1418,19 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>67700</v>
-      </c>
-      <c r="L27" t="inlineStr">
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>67700</v>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1536,26 +1455,21 @@
         <v>133.535821321322</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>68100</v>
-      </c>
-      <c r="K28" t="n">
-        <v>67700</v>
-      </c>
-      <c r="L28" t="inlineStr">
+        <v>67700</v>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1582,22 +1496,19 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>67700</v>
-      </c>
-      <c r="L29" t="inlineStr">
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>67700</v>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1624,22 +1535,19 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>67700</v>
-      </c>
-      <c r="L30" t="inlineStr">
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>67700</v>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1666,22 +1574,19 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>67700</v>
-      </c>
-      <c r="L31" t="inlineStr">
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>67700</v>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1708,22 +1613,19 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>67700</v>
-      </c>
-      <c r="L32" t="inlineStr">
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>67700</v>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1750,22 +1652,19 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>67700</v>
-      </c>
-      <c r="L33" t="inlineStr">
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>67700</v>
+      </c>
+      <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1792,22 +1691,19 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>67700</v>
-      </c>
-      <c r="L34" t="inlineStr">
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>67700</v>
+      </c>
+      <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1834,22 +1730,19 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>67700</v>
-      </c>
-      <c r="L35" t="inlineStr">
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>67700</v>
+      </c>
+      <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1876,22 +1769,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>67700</v>
-      </c>
-      <c r="L36" t="inlineStr">
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>67700</v>
+      </c>
+      <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1918,22 +1808,19 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>67700</v>
-      </c>
-      <c r="L37" t="inlineStr">
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>67700</v>
+      </c>
+      <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1960,22 +1847,19 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>67700</v>
-      </c>
-      <c r="L38" t="inlineStr">
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>67700</v>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2002,22 +1886,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>67700</v>
-      </c>
-      <c r="L39" t="inlineStr">
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>67700</v>
+      </c>
+      <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2044,22 +1925,19 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>67700</v>
-      </c>
-      <c r="L40" t="inlineStr">
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>67700</v>
+      </c>
+      <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2086,22 +1964,19 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>67700</v>
-      </c>
-      <c r="L41" t="inlineStr">
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>67700</v>
+      </c>
+      <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2128,22 +2003,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>67700</v>
-      </c>
-      <c r="L42" t="inlineStr">
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>67700</v>
+      </c>
+      <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2170,22 +2042,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>67700</v>
-      </c>
-      <c r="L43" t="inlineStr">
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>67700</v>
+      </c>
+      <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2212,22 +2081,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>67700</v>
-      </c>
-      <c r="L44" t="inlineStr">
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>67700</v>
+      </c>
+      <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2254,22 +2120,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>67700</v>
-      </c>
-      <c r="L45" t="inlineStr">
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>67700</v>
+      </c>
+      <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2296,22 +2159,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>67700</v>
-      </c>
-      <c r="L46" t="inlineStr">
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>67700</v>
+      </c>
+      <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2338,22 +2198,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>67700</v>
-      </c>
-      <c r="L47" t="inlineStr">
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>67700</v>
+      </c>
+      <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2380,22 +2237,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>67700</v>
-      </c>
-      <c r="L48" t="inlineStr">
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>67700</v>
+      </c>
+      <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2422,22 +2276,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>67700</v>
-      </c>
-      <c r="L49" t="inlineStr">
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>67700</v>
+      </c>
+      <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2464,22 +2315,19 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>67700</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1.030450516986706</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>67700</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2506,16 +2354,19 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>67700</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2542,16 +2393,19 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>67700</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2578,16 +2432,19 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>67700</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2614,16 +2471,19 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>67700</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2650,16 +2510,19 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>67700</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2686,16 +2549,19 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>67700</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2722,16 +2588,19 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>67700</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2758,16 +2627,19 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>67700</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2792,18 +2664,21 @@
         <v>147.304428418554</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>1</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>67700</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1.02158788774003</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2828,18 +2703,15 @@
         <v>147.404428418554</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2864,18 +2736,15 @@
         <v>146.892128418554</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2900,18 +2769,15 @@
         <v>148.919228418554</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2936,18 +2802,15 @@
         <v>150.854228418554</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2974,16 +2837,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3010,16 +2870,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>1</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3046,16 +2903,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3082,16 +2936,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3118,16 +2969,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>1</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3154,16 +3002,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3190,16 +3035,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3226,16 +3068,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3262,16 +3101,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3298,16 +3134,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3334,16 +3167,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3370,16 +3200,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3406,16 +3233,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3442,16 +3266,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3478,16 +3299,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3514,16 +3332,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3550,16 +3365,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3586,16 +3398,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3622,16 +3431,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3658,16 +3464,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3694,16 +3497,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3730,16 +3530,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3766,16 +3563,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3802,16 +3596,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3836,18 +3627,15 @@
         <v>125.335928418554</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3874,16 +3662,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3910,16 +3695,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3946,16 +3728,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3982,16 +3761,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4018,16 +3794,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4054,16 +3827,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4090,16 +3860,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4126,16 +3893,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4162,16 +3926,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4198,16 +3959,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4234,16 +3992,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4270,16 +4025,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4306,16 +4058,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4342,16 +4091,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4378,16 +4124,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4414,16 +4157,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4450,16 +4190,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4486,16 +4223,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4522,16 +4256,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4558,16 +4289,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4594,16 +4322,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4630,16 +4355,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4666,16 +4388,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4700,18 +4419,15 @@
         <v>119.415169443209</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4736,18 +4452,15 @@
         <v>119.445083973123</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4772,18 +4485,15 @@
         <v>119.405083973123</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4808,18 +4518,15 @@
         <v>117.475283973123</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4844,18 +4551,15 @@
         <v>117.329183973123</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4880,18 +4584,15 @@
         <v>117.360926830265</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4916,18 +4617,15 @@
         <v>115.633126830265</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4954,16 +4652,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4990,16 +4685,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5026,16 +4718,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5062,16 +4751,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5098,16 +4784,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5134,16 +4817,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>1</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5168,20 +4848,17 @@
         <v>139.312289330265</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-28 BackTest XMR.xlsx
+++ b/BackTest/2019-10-28 BackTest XMR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>29.18782132132199</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>30.57182132132199</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>67050</v>
@@ -521,7 +521,7 @@
         <v>31.93182132132199</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>67300</v>
@@ -562,11 +562,9 @@
         <v>31.58442132132199</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>67500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
         <v>67050</v>
       </c>
@@ -603,14 +601,10 @@
         <v>32.71502132132199</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>67300</v>
-      </c>
-      <c r="J6" t="n">
-        <v>67300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -640,19 +634,11 @@
         <v>34.84562132132199</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>67400</v>
-      </c>
-      <c r="J7" t="n">
-        <v>67300</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -684,14 +670,8 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>67300</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -720,14 +700,10 @@
         <v>27.78282132132199</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>67550</v>
-      </c>
-      <c r="J9" t="n">
-        <v>67550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
@@ -760,14 +736,8 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>67550</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -796,19 +766,11 @@
         <v>27.78282132132199</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>67600</v>
-      </c>
-      <c r="J11" t="n">
-        <v>67550</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -870,14 +832,10 @@
         <v>27.48862132132199</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>67700</v>
-      </c>
-      <c r="J13" t="n">
-        <v>67700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
@@ -907,253 +865,219 @@
         <v>27.62362132132199</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>67650</v>
-      </c>
-      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
         <v>67700</v>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="C15" t="n">
+        <v>67900</v>
+      </c>
+      <c r="D15" t="n">
+        <v>67900</v>
+      </c>
+      <c r="E15" t="n">
+        <v>67700</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.5606</v>
+      </c>
+      <c r="G15" t="n">
+        <v>28.18422132132199</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>67900</v>
+      </c>
+      <c r="C16" t="n">
+        <v>67900</v>
+      </c>
+      <c r="D16" t="n">
+        <v>67900</v>
+      </c>
+      <c r="E16" t="n">
+        <v>67900</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G16" t="n">
+        <v>28.18422132132199</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>68000</v>
+      </c>
+      <c r="C17" t="n">
+        <v>68000</v>
+      </c>
+      <c r="D17" t="n">
+        <v>68000</v>
+      </c>
+      <c r="E17" t="n">
+        <v>68000</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G17" t="n">
+        <v>28.28422132132199</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>67950</v>
+      </c>
+      <c r="C18" t="n">
+        <v>67950</v>
+      </c>
+      <c r="D18" t="n">
+        <v>67950</v>
+      </c>
+      <c r="E18" t="n">
+        <v>67950</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.1956</v>
+      </c>
+      <c r="G18" t="n">
+        <v>28.08862132132199</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>68200</v>
+      </c>
+      <c r="C19" t="n">
+        <v>68350</v>
+      </c>
+      <c r="D19" t="n">
+        <v>68350</v>
+      </c>
+      <c r="E19" t="n">
+        <v>68200</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.8352000000000001</v>
+      </c>
+      <c r="G19" t="n">
+        <v>28.923821321322</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>67950</v>
+      </c>
+      <c r="J19" t="n">
+        <v>67950</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>68450</v>
+      </c>
+      <c r="C20" t="n">
+        <v>68500</v>
+      </c>
+      <c r="D20" t="n">
+        <v>68500</v>
+      </c>
+      <c r="E20" t="n">
+        <v>68450</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3.7292</v>
+      </c>
+      <c r="G20" t="n">
+        <v>32.65302132132199</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>67950</v>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>67700</v>
-      </c>
-      <c r="C15" t="n">
-        <v>67900</v>
-      </c>
-      <c r="D15" t="n">
-        <v>67900</v>
-      </c>
-      <c r="E15" t="n">
-        <v>67700</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.5606</v>
-      </c>
-      <c r="G15" t="n">
-        <v>28.18422132132199</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>67700</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>67900</v>
-      </c>
-      <c r="C16" t="n">
-        <v>67900</v>
-      </c>
-      <c r="D16" t="n">
-        <v>67900</v>
-      </c>
-      <c r="E16" t="n">
-        <v>67900</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="G16" t="n">
-        <v>28.18422132132199</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>67700</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>68000</v>
-      </c>
-      <c r="C17" t="n">
-        <v>68000</v>
-      </c>
-      <c r="D17" t="n">
-        <v>68000</v>
-      </c>
-      <c r="E17" t="n">
-        <v>68000</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G17" t="n">
-        <v>28.28422132132199</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>67700</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>67950</v>
-      </c>
-      <c r="C18" t="n">
-        <v>67950</v>
-      </c>
-      <c r="D18" t="n">
-        <v>67950</v>
-      </c>
-      <c r="E18" t="n">
-        <v>67950</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.1956</v>
-      </c>
-      <c r="G18" t="n">
-        <v>28.08862132132199</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>67700</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>68200</v>
-      </c>
-      <c r="C19" t="n">
-        <v>68350</v>
-      </c>
-      <c r="D19" t="n">
-        <v>68350</v>
-      </c>
-      <c r="E19" t="n">
-        <v>68200</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.8352000000000001</v>
-      </c>
-      <c r="G19" t="n">
-        <v>28.923821321322</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>67700</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>68450</v>
-      </c>
-      <c r="C20" t="n">
-        <v>68500</v>
-      </c>
-      <c r="D20" t="n">
-        <v>68500</v>
-      </c>
-      <c r="E20" t="n">
-        <v>68450</v>
-      </c>
-      <c r="F20" t="n">
-        <v>3.7292</v>
-      </c>
-      <c r="G20" t="n">
-        <v>32.65302132132199</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>67700</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1186,11 +1110,11 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
-        <v>67700</v>
+        <v>67950</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L21" t="n">
@@ -1221,17 +1145,15 @@
         <v>48.75022132132199</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>68600</v>
+      </c>
       <c r="J22" t="n">
-        <v>67700</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>68600</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1264,11 +1186,11 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>67700</v>
+        <v>68600</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L23" t="n">
@@ -1303,11 +1225,11 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
-        <v>67700</v>
+        <v>68600</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L24" t="n">
@@ -1341,14 +1263,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>67700</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1380,14 +1296,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>67700</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1419,14 +1329,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>67700</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1458,14 +1362,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>67700</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1497,14 +1395,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>67700</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1536,14 +1428,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>67700</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1575,14 +1461,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>67700</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1614,14 +1494,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>67700</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1653,14 +1527,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>67700</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1692,14 +1560,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>67700</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1731,14 +1593,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>67700</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1770,14 +1626,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>67700</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1809,14 +1659,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>67700</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1848,14 +1692,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>67700</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1887,14 +1725,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>67700</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1926,14 +1758,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>67700</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1965,14 +1791,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>67700</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2004,14 +1824,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>67700</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2043,14 +1857,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>67700</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2082,14 +1890,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>67700</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2121,14 +1923,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>67700</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2160,14 +1956,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>67700</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2199,14 +1989,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>67700</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2238,14 +2022,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>67700</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2277,14 +2055,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>67700</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2316,14 +2088,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>67700</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2355,14 +2121,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>67700</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2394,14 +2154,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>67700</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2433,14 +2187,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>67700</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2472,14 +2220,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>67700</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2511,14 +2253,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>67700</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2550,14 +2286,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>67700</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2589,14 +2319,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>67700</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2628,14 +2352,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>67700</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2664,19 +2382,13 @@
         <v>147.304428418554</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>67700</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
-        <v>1.02158788774003</v>
+        <v>1</v>
       </c>
       <c r="M59" t="inlineStr"/>
     </row>
@@ -2703,7 +2415,7 @@
         <v>147.404428418554</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2736,7 +2448,7 @@
         <v>146.892128418554</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2769,7 +2481,7 @@
         <v>148.919228418554</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2802,7 +2514,7 @@
         <v>150.854228418554</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -3033,7 +2745,7 @@
         <v>165.454228418554</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -3066,7 +2778,7 @@
         <v>166.788228418554</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3099,7 +2811,7 @@
         <v>161.433128418554</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3132,7 +2844,7 @@
         <v>158.952428418554</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3165,7 +2877,7 @@
         <v>157.727428418554</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3198,7 +2910,7 @@
         <v>157.227428418554</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3231,7 +2943,7 @@
         <v>122.907428418554</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3264,7 +2976,7 @@
         <v>132.541028418554</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3297,7 +3009,7 @@
         <v>131.861028418554</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3330,7 +3042,7 @@
         <v>132.541028418554</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3363,7 +3075,7 @@
         <v>130.185928418554</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3429,7 +3141,7 @@
         <v>129.245928418554</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3462,7 +3174,7 @@
         <v>127.245928418554</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3495,7 +3207,7 @@
         <v>127.245928418554</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3528,7 +3240,7 @@
         <v>127.245928418554</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3594,7 +3306,7 @@
         <v>125.335928418554</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3627,7 +3339,7 @@
         <v>125.335928418554</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3660,7 +3372,7 @@
         <v>122.197928418554</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3693,7 +3405,7 @@
         <v>124.955228418554</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3726,7 +3438,7 @@
         <v>125.003528418554</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3759,7 +3471,7 @@
         <v>123.510628418554</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3792,7 +3504,7 @@
         <v>121.031828418554</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3825,7 +3537,7 @@
         <v>119.387828418554</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3858,7 +3570,7 @@
         <v>119.434182209167</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3891,7 +3603,7 @@
         <v>115.287282209167</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3924,7 +3636,7 @@
         <v>115.951782209167</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3957,7 +3669,7 @@
         <v>118.017982209167</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3990,7 +3702,7 @@
         <v>118.017982209167</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4023,7 +3735,7 @@
         <v>117.917982209167</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4419,7 +4131,7 @@
         <v>119.415169443209</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4452,7 +4164,7 @@
         <v>119.445083973123</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4485,7 +4197,7 @@
         <v>119.405083973123</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4518,7 +4230,7 @@
         <v>117.475283973123</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4551,7 +4263,7 @@
         <v>117.329183973123</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4584,7 +4296,7 @@
         <v>117.360926830265</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4617,7 +4329,7 @@
         <v>115.633126830265</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4650,7 +4362,7 @@
         <v>115.633126830265</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4683,7 +4395,7 @@
         <v>114.180826830265</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4716,7 +4428,7 @@
         <v>114.180826830265</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4749,7 +4461,7 @@
         <v>114.380826830265</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4782,7 +4494,7 @@
         <v>137.780826830265</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4815,7 +4527,7 @@
         <v>137.812389330265</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4848,7 +4560,7 @@
         <v>139.312289330265</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4859,6 +4571,6 @@
       <c r="M125" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-28 BackTest XMR.xlsx
+++ b/BackTest/2019-10-28 BackTest XMR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -521,11 +521,9 @@
         <v>31.93182132132199</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>67300</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
         <v>67050</v>
       </c>
@@ -562,7 +560,7 @@
         <v>31.58442132132199</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
@@ -634,10 +632,14 @@
         <v>34.84562132132199</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>67400</v>
+      </c>
+      <c r="J7" t="n">
+        <v>67400</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
@@ -670,8 +672,14 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -703,8 +711,14 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -1030,14 +1044,10 @@
         <v>28.923821321322</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>67950</v>
-      </c>
-      <c r="J19" t="n">
-        <v>67950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
@@ -1070,14 +1080,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>67950</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1109,14 +1113,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>67950</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1145,14 +1143,10 @@
         <v>48.75022132132199</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>68600</v>
-      </c>
-      <c r="J22" t="n">
-        <v>68600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
@@ -1182,17 +1176,11 @@
         <v>48.740221321322</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>68600</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1221,17 +1209,11 @@
         <v>59.54022132132199</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>68600</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1260,7 +1242,7 @@
         <v>57.22552132132199</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1293,7 +1275,7 @@
         <v>52.71912132132199</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1326,7 +1308,7 @@
         <v>48.942021321322</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1359,7 +1341,7 @@
         <v>133.535821321322</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1392,7 +1374,7 @@
         <v>134.734021321322</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1425,7 +1407,7 @@
         <v>141.256021321322</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1458,7 +1440,7 @@
         <v>159.024021321322</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1491,7 +1473,7 @@
         <v>159.024021321322</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1557,7 +1539,7 @@
         <v>108.982621321322</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1590,7 +1572,7 @@
         <v>108.982621321322</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -2382,7 +2364,7 @@
         <v>147.304428418554</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2415,7 +2397,7 @@
         <v>147.404428418554</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2448,7 +2430,7 @@
         <v>146.892128418554</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2745,7 +2727,7 @@
         <v>165.454228418554</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2778,7 +2760,7 @@
         <v>166.788228418554</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2811,7 +2793,7 @@
         <v>161.433128418554</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2844,7 +2826,7 @@
         <v>158.952428418554</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2877,7 +2859,7 @@
         <v>157.727428418554</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2910,7 +2892,7 @@
         <v>157.227428418554</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2943,7 +2925,7 @@
         <v>122.907428418554</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2976,7 +2958,7 @@
         <v>132.541028418554</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3009,7 +2991,7 @@
         <v>131.861028418554</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3042,7 +3024,7 @@
         <v>132.541028418554</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3075,7 +3057,7 @@
         <v>130.185928418554</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3141,7 +3123,7 @@
         <v>129.245928418554</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3174,7 +3156,7 @@
         <v>127.245928418554</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3207,7 +3189,7 @@
         <v>127.245928418554</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3240,7 +3222,7 @@
         <v>127.245928418554</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3306,7 +3288,7 @@
         <v>125.335928418554</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3339,7 +3321,7 @@
         <v>125.335928418554</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3372,7 +3354,7 @@
         <v>122.197928418554</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3405,7 +3387,7 @@
         <v>124.955228418554</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3438,7 +3420,7 @@
         <v>125.003528418554</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3471,7 +3453,7 @@
         <v>123.510628418554</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3504,7 +3486,7 @@
         <v>121.031828418554</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3537,7 +3519,7 @@
         <v>119.387828418554</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3570,7 +3552,7 @@
         <v>119.434182209167</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3603,7 +3585,7 @@
         <v>115.287282209167</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3636,7 +3618,7 @@
         <v>115.951782209167</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3669,7 +3651,7 @@
         <v>118.017982209167</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3702,7 +3684,7 @@
         <v>118.017982209167</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3735,7 +3717,7 @@
         <v>117.917982209167</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4296,7 +4278,7 @@
         <v>117.360926830265</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4329,7 +4311,7 @@
         <v>115.633126830265</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4362,7 +4344,7 @@
         <v>115.633126830265</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4395,7 +4377,7 @@
         <v>114.180826830265</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4428,7 +4410,7 @@
         <v>114.180826830265</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4461,7 +4443,7 @@
         <v>114.380826830265</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4494,7 +4476,7 @@
         <v>137.780826830265</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4527,7 +4509,7 @@
         <v>137.812389330265</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4560,7 +4542,7 @@
         <v>139.312289330265</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4571,6 +4553,6 @@
       <c r="M125" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-28 BackTest XMR.xlsx
+++ b/BackTest/2019-10-28 BackTest XMR.xlsx
@@ -521,9 +521,11 @@
         <v>31.93182132132199</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>67300</v>
+      </c>
       <c r="J4" t="n">
         <v>67050</v>
       </c>
@@ -560,7 +562,7 @@
         <v>31.58442132132199</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
@@ -599,10 +601,14 @@
         <v>32.71502132132199</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>67300</v>
+      </c>
+      <c r="J6" t="n">
+        <v>67300</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -632,15 +638,17 @@
         <v>34.84562132132199</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>67400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>67400</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
+        <v>67300</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -673,7 +681,7 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>67400</v>
+        <v>67300</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -711,14 +719,8 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>67400</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -780,10 +782,14 @@
         <v>27.78282132132199</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>67600</v>
+      </c>
+      <c r="J11" t="n">
+        <v>67600</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
@@ -816,8 +822,14 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>67600</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -849,8 +861,14 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>67600</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -1176,7 +1194,7 @@
         <v>48.740221321322</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1209,7 +1227,7 @@
         <v>59.54022132132199</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1242,7 +1260,7 @@
         <v>57.22552132132199</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1275,7 +1293,7 @@
         <v>52.71912132132199</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1308,7 +1326,7 @@
         <v>48.942021321322</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1341,7 +1359,7 @@
         <v>133.535821321322</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1374,7 +1392,7 @@
         <v>134.734021321322</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1407,7 +1425,7 @@
         <v>141.256021321322</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1440,7 +1458,7 @@
         <v>159.024021321322</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1473,7 +1491,7 @@
         <v>159.024021321322</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1539,7 +1557,7 @@
         <v>108.982621321322</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1572,7 +1590,7 @@
         <v>108.982621321322</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -2067,7 +2085,7 @@
         <v>151.094221321322</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2133,7 +2151,7 @@
         <v>144.765021321322</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2199,7 +2217,7 @@
         <v>146.481521321322</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2232,7 +2250,7 @@
         <v>146.551528418554</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2265,7 +2283,7 @@
         <v>146.551528418554</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2298,7 +2316,7 @@
         <v>149.431528418554</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2331,7 +2349,7 @@
         <v>147.404428418554</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2364,7 +2382,7 @@
         <v>147.304428418554</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2397,7 +2415,7 @@
         <v>147.404428418554</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2430,7 +2448,7 @@
         <v>146.892128418554</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2463,7 +2481,7 @@
         <v>148.919228418554</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2496,7 +2514,7 @@
         <v>150.854228418554</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2529,7 +2547,7 @@
         <v>150.854228418554</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2562,7 +2580,7 @@
         <v>165.454228418554</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2595,7 +2613,7 @@
         <v>165.454228418554</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2628,7 +2646,7 @@
         <v>165.454228418554</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2661,7 +2679,7 @@
         <v>165.454228418554</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2694,7 +2712,7 @@
         <v>165.454228418554</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2727,7 +2745,7 @@
         <v>165.454228418554</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2760,7 +2778,7 @@
         <v>166.788228418554</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2793,7 +2811,7 @@
         <v>161.433128418554</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2826,7 +2844,7 @@
         <v>158.952428418554</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2859,7 +2877,7 @@
         <v>157.727428418554</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2892,7 +2910,7 @@
         <v>157.227428418554</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2925,7 +2943,7 @@
         <v>122.907428418554</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2991,7 +3009,7 @@
         <v>131.861028418554</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3024,7 +3042,7 @@
         <v>132.541028418554</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3057,7 +3075,7 @@
         <v>130.185928418554</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3090,7 +3108,7 @@
         <v>131.208928418554</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3123,7 +3141,7 @@
         <v>129.245928418554</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3156,7 +3174,7 @@
         <v>127.245928418554</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3189,7 +3207,7 @@
         <v>127.245928418554</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -4212,7 +4230,7 @@
         <v>117.475283973123</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4509,7 +4527,7 @@
         <v>137.812389330265</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4542,7 +4560,7 @@
         <v>139.312289330265</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>

--- a/BackTest/2019-10-28 BackTest XMR.xlsx
+++ b/BackTest/2019-10-28 BackTest XMR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M125"/>
+  <dimension ref="A1:L125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>6.4504</v>
       </c>
       <c r="G2" t="n">
-        <v>29.18782132132199</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,15 @@
         <v>1.384</v>
       </c>
       <c r="G3" t="n">
-        <v>30.57182132132199</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>67050</v>
-      </c>
-      <c r="J3" t="n">
-        <v>67050</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,625 +503,581 @@
         <v>1.36</v>
       </c>
       <c r="G4" t="n">
-        <v>31.93182132132199</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
         <v>67300</v>
       </c>
-      <c r="J4" t="n">
-        <v>67050</v>
-      </c>
-      <c r="K4" t="inlineStr">
+      <c r="C5" t="n">
+        <v>67300</v>
+      </c>
+      <c r="D5" t="n">
+        <v>67300</v>
+      </c>
+      <c r="E5" t="n">
+        <v>67300</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.3474</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>67400</v>
+      </c>
+      <c r="C6" t="n">
+        <v>67400</v>
+      </c>
+      <c r="D6" t="n">
+        <v>67400</v>
+      </c>
+      <c r="E6" t="n">
+        <v>67400</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.1306</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>67550</v>
+      </c>
+      <c r="C7" t="n">
+        <v>67600</v>
+      </c>
+      <c r="D7" t="n">
+        <v>67600</v>
+      </c>
+      <c r="E7" t="n">
+        <v>67550</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.1306</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>67550</v>
+      </c>
+      <c r="C8" t="n">
+        <v>67550</v>
+      </c>
+      <c r="D8" t="n">
+        <v>67550</v>
+      </c>
+      <c r="E8" t="n">
+        <v>67550</v>
+      </c>
+      <c r="F8" t="n">
+        <v>9.472</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>67600</v>
+      </c>
+      <c r="C9" t="n">
+        <v>67600</v>
+      </c>
+      <c r="D9" t="n">
+        <v>67600</v>
+      </c>
+      <c r="E9" t="n">
+        <v>67600</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2.4092</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>67600</v>
+      </c>
+      <c r="C10" t="n">
+        <v>67600</v>
+      </c>
+      <c r="D10" t="n">
+        <v>67600</v>
+      </c>
+      <c r="E10" t="n">
+        <v>67600</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5.9167</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>67600</v>
+      </c>
+      <c r="C11" t="n">
+        <v>67600</v>
+      </c>
+      <c r="D11" t="n">
+        <v>67600</v>
+      </c>
+      <c r="E11" t="n">
+        <v>67600</v>
+      </c>
+      <c r="F11" t="n">
+        <v>42.3167</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>67700</v>
+      </c>
+      <c r="C12" t="n">
+        <v>67700</v>
+      </c>
+      <c r="D12" t="n">
+        <v>67700</v>
+      </c>
+      <c r="E12" t="n">
+        <v>67700</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0144</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>67600</v>
+      </c>
+      <c r="I12" t="n">
+        <v>67600</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>67650</v>
+      </c>
+      <c r="C13" t="n">
+        <v>67650</v>
+      </c>
+      <c r="D13" t="n">
+        <v>67650</v>
+      </c>
+      <c r="E13" t="n">
+        <v>67650</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.3086</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>67700</v>
+      </c>
+      <c r="I13" t="n">
+        <v>67600</v>
+      </c>
+      <c r="J13" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>67300</v>
-      </c>
-      <c r="C5" t="n">
-        <v>67300</v>
-      </c>
-      <c r="D5" t="n">
-        <v>67300</v>
-      </c>
-      <c r="E5" t="n">
-        <v>67300</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.3474</v>
-      </c>
-      <c r="G5" t="n">
-        <v>31.58442132132199</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>67050</v>
-      </c>
-      <c r="K5" t="inlineStr">
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>67700</v>
+      </c>
+      <c r="C14" t="n">
+        <v>67700</v>
+      </c>
+      <c r="D14" t="n">
+        <v>67700</v>
+      </c>
+      <c r="E14" t="n">
+        <v>67700</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>67600</v>
+      </c>
+      <c r="J14" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>67400</v>
-      </c>
-      <c r="C6" t="n">
-        <v>67400</v>
-      </c>
-      <c r="D6" t="n">
-        <v>67400</v>
-      </c>
-      <c r="E6" t="n">
-        <v>67400</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1.1306</v>
-      </c>
-      <c r="G6" t="n">
-        <v>32.71502132132199</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>67300</v>
-      </c>
-      <c r="J6" t="n">
-        <v>67300</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>67550</v>
-      </c>
-      <c r="C7" t="n">
-        <v>67600</v>
-      </c>
-      <c r="D7" t="n">
-        <v>67600</v>
-      </c>
-      <c r="E7" t="n">
-        <v>67550</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2.1306</v>
-      </c>
-      <c r="G7" t="n">
-        <v>34.84562132132199</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>67300</v>
-      </c>
-      <c r="K7" t="inlineStr">
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>67700</v>
+      </c>
+      <c r="C15" t="n">
+        <v>67900</v>
+      </c>
+      <c r="D15" t="n">
+        <v>67900</v>
+      </c>
+      <c r="E15" t="n">
+        <v>67700</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.5606</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>67900</v>
+      </c>
+      <c r="C16" t="n">
+        <v>67900</v>
+      </c>
+      <c r="D16" t="n">
+        <v>67900</v>
+      </c>
+      <c r="E16" t="n">
+        <v>67900</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>67900</v>
+      </c>
+      <c r="I16" t="n">
+        <v>67900</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>68000</v>
+      </c>
+      <c r="C17" t="n">
+        <v>68000</v>
+      </c>
+      <c r="D17" t="n">
+        <v>68000</v>
+      </c>
+      <c r="E17" t="n">
+        <v>68000</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>67900</v>
+      </c>
+      <c r="I17" t="n">
+        <v>67900</v>
+      </c>
+      <c r="J17" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>67550</v>
-      </c>
-      <c r="C8" t="n">
-        <v>67550</v>
-      </c>
-      <c r="D8" t="n">
-        <v>67550</v>
-      </c>
-      <c r="E8" t="n">
-        <v>67550</v>
-      </c>
-      <c r="F8" t="n">
-        <v>9.472</v>
-      </c>
-      <c r="G8" t="n">
-        <v>25.37362132132199</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>67300</v>
-      </c>
-      <c r="K8" t="inlineStr">
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>67950</v>
+      </c>
+      <c r="C18" t="n">
+        <v>67950</v>
+      </c>
+      <c r="D18" t="n">
+        <v>67950</v>
+      </c>
+      <c r="E18" t="n">
+        <v>67950</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.1956</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>67900</v>
+      </c>
+      <c r="J18" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>67600</v>
-      </c>
-      <c r="C9" t="n">
-        <v>67600</v>
-      </c>
-      <c r="D9" t="n">
-        <v>67600</v>
-      </c>
-      <c r="E9" t="n">
-        <v>67600</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2.4092</v>
-      </c>
-      <c r="G9" t="n">
-        <v>27.78282132132199</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>67600</v>
-      </c>
-      <c r="C10" t="n">
-        <v>67600</v>
-      </c>
-      <c r="D10" t="n">
-        <v>67600</v>
-      </c>
-      <c r="E10" t="n">
-        <v>67600</v>
-      </c>
-      <c r="F10" t="n">
-        <v>5.9167</v>
-      </c>
-      <c r="G10" t="n">
-        <v>27.78282132132199</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>67600</v>
-      </c>
-      <c r="C11" t="n">
-        <v>67600</v>
-      </c>
-      <c r="D11" t="n">
-        <v>67600</v>
-      </c>
-      <c r="E11" t="n">
-        <v>67600</v>
-      </c>
-      <c r="F11" t="n">
-        <v>42.3167</v>
-      </c>
-      <c r="G11" t="n">
-        <v>27.78282132132199</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>67600</v>
-      </c>
-      <c r="J11" t="n">
-        <v>67600</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>67700</v>
-      </c>
-      <c r="C12" t="n">
-        <v>67700</v>
-      </c>
-      <c r="D12" t="n">
-        <v>67700</v>
-      </c>
-      <c r="E12" t="n">
-        <v>67700</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.0144</v>
-      </c>
-      <c r="G12" t="n">
-        <v>27.79722132132199</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>67600</v>
-      </c>
-      <c r="K12" t="inlineStr">
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>68200</v>
+      </c>
+      <c r="C19" t="n">
+        <v>68350</v>
+      </c>
+      <c r="D19" t="n">
+        <v>68350</v>
+      </c>
+      <c r="E19" t="n">
+        <v>68200</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.8352000000000001</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>67950</v>
+      </c>
+      <c r="I19" t="n">
+        <v>67950</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>68450</v>
+      </c>
+      <c r="C20" t="n">
+        <v>68500</v>
+      </c>
+      <c r="D20" t="n">
+        <v>68500</v>
+      </c>
+      <c r="E20" t="n">
+        <v>68450</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3.7292</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>68350</v>
+      </c>
+      <c r="I20" t="n">
+        <v>67950</v>
+      </c>
+      <c r="J20" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>67650</v>
-      </c>
-      <c r="C13" t="n">
-        <v>67650</v>
-      </c>
-      <c r="D13" t="n">
-        <v>67650</v>
-      </c>
-      <c r="E13" t="n">
-        <v>67650</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.3086</v>
-      </c>
-      <c r="G13" t="n">
-        <v>27.48862132132199</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>67600</v>
-      </c>
-      <c r="K13" t="inlineStr">
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>68600</v>
+      </c>
+      <c r="C21" t="n">
+        <v>68600</v>
+      </c>
+      <c r="D21" t="n">
+        <v>68600</v>
+      </c>
+      <c r="E21" t="n">
+        <v>68600</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.378</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>68500</v>
+      </c>
+      <c r="I21" t="n">
+        <v>67950</v>
+      </c>
+      <c r="J21" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>67700</v>
-      </c>
-      <c r="C14" t="n">
-        <v>67700</v>
-      </c>
-      <c r="D14" t="n">
-        <v>67700</v>
-      </c>
-      <c r="E14" t="n">
-        <v>67700</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.135</v>
-      </c>
-      <c r="G14" t="n">
-        <v>27.62362132132199</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>67700</v>
-      </c>
-      <c r="C15" t="n">
-        <v>67900</v>
-      </c>
-      <c r="D15" t="n">
-        <v>67900</v>
-      </c>
-      <c r="E15" t="n">
-        <v>67700</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.5606</v>
-      </c>
-      <c r="G15" t="n">
-        <v>28.18422132132199</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>67900</v>
-      </c>
-      <c r="C16" t="n">
-        <v>67900</v>
-      </c>
-      <c r="D16" t="n">
-        <v>67900</v>
-      </c>
-      <c r="E16" t="n">
-        <v>67900</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="G16" t="n">
-        <v>28.18422132132199</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>68000</v>
-      </c>
-      <c r="C17" t="n">
-        <v>68000</v>
-      </c>
-      <c r="D17" t="n">
-        <v>68000</v>
-      </c>
-      <c r="E17" t="n">
-        <v>68000</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G17" t="n">
-        <v>28.28422132132199</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>67950</v>
-      </c>
-      <c r="C18" t="n">
-        <v>67950</v>
-      </c>
-      <c r="D18" t="n">
-        <v>67950</v>
-      </c>
-      <c r="E18" t="n">
-        <v>67950</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.1956</v>
-      </c>
-      <c r="G18" t="n">
-        <v>28.08862132132199</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>68200</v>
-      </c>
-      <c r="C19" t="n">
-        <v>68350</v>
-      </c>
-      <c r="D19" t="n">
-        <v>68350</v>
-      </c>
-      <c r="E19" t="n">
-        <v>68200</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.8352000000000001</v>
-      </c>
-      <c r="G19" t="n">
-        <v>28.923821321322</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>68450</v>
-      </c>
-      <c r="C20" t="n">
-        <v>68500</v>
-      </c>
-      <c r="D20" t="n">
-        <v>68500</v>
-      </c>
-      <c r="E20" t="n">
-        <v>68450</v>
-      </c>
-      <c r="F20" t="n">
-        <v>3.7292</v>
-      </c>
-      <c r="G20" t="n">
-        <v>32.65302132132199</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>68600</v>
-      </c>
-      <c r="C21" t="n">
-        <v>68600</v>
-      </c>
-      <c r="D21" t="n">
-        <v>68600</v>
-      </c>
-      <c r="E21" t="n">
-        <v>68600</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.378</v>
-      </c>
-      <c r="G21" t="n">
-        <v>33.03102132132199</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1158,18 +1099,19 @@
         <v>15.7192</v>
       </c>
       <c r="G22" t="n">
-        <v>48.75022132132199</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>68600</v>
+      </c>
+      <c r="I22" t="n">
+        <v>68600</v>
+      </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1191,18 +1133,21 @@
         <v>0.01</v>
       </c>
       <c r="G23" t="n">
-        <v>48.740221321322</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>68600</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1224,18 +1169,21 @@
         <v>10.8</v>
       </c>
       <c r="G24" t="n">
-        <v>59.54022132132199</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>68600</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1257,18 +1205,15 @@
         <v>2.3147</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22552132132199</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1290,18 +1235,15 @@
         <v>4.5064</v>
       </c>
       <c r="G26" t="n">
-        <v>52.71912132132199</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1323,18 +1265,19 @@
         <v>3.7771</v>
       </c>
       <c r="G27" t="n">
-        <v>48.942021321322</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>68400</v>
+      </c>
+      <c r="I27" t="n">
+        <v>68400</v>
+      </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1356,18 +1299,23 @@
         <v>84.5938</v>
       </c>
       <c r="G28" t="n">
-        <v>133.535821321322</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>68100</v>
+      </c>
+      <c r="I28" t="n">
+        <v>68400</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1389,18 +1337,23 @@
         <v>1.1982</v>
       </c>
       <c r="G29" t="n">
-        <v>134.734021321322</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>68450</v>
+      </c>
+      <c r="I29" t="n">
+        <v>68400</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1422,18 +1375,23 @@
         <v>6.522</v>
       </c>
       <c r="G30" t="n">
-        <v>141.256021321322</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>68500</v>
+      </c>
+      <c r="I30" t="n">
+        <v>68400</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1455,18 +1413,21 @@
         <v>17.768</v>
       </c>
       <c r="G31" t="n">
-        <v>159.024021321322</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>68400</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1488,18 +1449,21 @@
         <v>23.3893</v>
       </c>
       <c r="G32" t="n">
-        <v>159.024021321322</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>68400</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1521,18 +1485,21 @@
         <v>44.565</v>
       </c>
       <c r="G33" t="n">
-        <v>114.459021321322</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>68400</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1554,18 +1521,21 @@
         <v>5.4764</v>
       </c>
       <c r="G34" t="n">
-        <v>108.982621321322</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>68400</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1587,18 +1557,21 @@
         <v>17.9291</v>
       </c>
       <c r="G35" t="n">
-        <v>108.982621321322</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>68400</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1620,18 +1593,23 @@
         <v>18.359</v>
       </c>
       <c r="G36" t="n">
-        <v>127.341621321322</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>68150</v>
+      </c>
+      <c r="I36" t="n">
+        <v>68400</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1653,18 +1631,21 @@
         <v>2.0405</v>
       </c>
       <c r="G37" t="n">
-        <v>125.301121321322</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>68400</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1686,18 +1667,21 @@
         <v>22.3288</v>
       </c>
       <c r="G38" t="n">
-        <v>125.301121321322</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>68400</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1719,18 +1703,21 @@
         <v>0.1</v>
       </c>
       <c r="G39" t="n">
-        <v>125.401121321322</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>68400</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1752,18 +1739,21 @@
         <v>0.34</v>
       </c>
       <c r="G40" t="n">
-        <v>125.741121321322</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>68400</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1785,18 +1775,21 @@
         <v>27.252</v>
       </c>
       <c r="G41" t="n">
-        <v>125.741121321322</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>68400</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1818,18 +1811,21 @@
         <v>14.4595</v>
       </c>
       <c r="G42" t="n">
-        <v>125.741121321322</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>68400</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1851,18 +1847,21 @@
         <v>1.0458</v>
       </c>
       <c r="G43" t="n">
-        <v>125.741121321322</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>68400</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1884,18 +1883,21 @@
         <v>9.773</v>
       </c>
       <c r="G44" t="n">
-        <v>125.741121321322</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>68400</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1917,18 +1919,21 @@
         <v>2.4086</v>
       </c>
       <c r="G45" t="n">
-        <v>128.149721321322</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>68400</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1950,18 +1955,21 @@
         <v>11.8189</v>
       </c>
       <c r="G46" t="n">
-        <v>139.968621321322</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>68400</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1983,18 +1991,21 @@
         <v>0.8628</v>
       </c>
       <c r="G47" t="n">
-        <v>139.968621321322</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>68400</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2016,18 +2027,21 @@
         <v>2.49</v>
       </c>
       <c r="G48" t="n">
-        <v>142.458621321322</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>68400</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2049,18 +2063,21 @@
         <v>10.19</v>
       </c>
       <c r="G49" t="n">
-        <v>152.648621321322</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>68400</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2082,18 +2099,21 @@
         <v>1.5544</v>
       </c>
       <c r="G50" t="n">
-        <v>151.094221321322</v>
-      </c>
-      <c r="H50" t="n">
-        <v>2</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>68400</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2115,18 +2135,21 @@
         <v>6.3292</v>
       </c>
       <c r="G51" t="n">
-        <v>144.765021321322</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>68400</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1.014005847953217</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2148,18 +2171,15 @@
         <v>4.629</v>
       </c>
       <c r="G52" t="n">
-        <v>144.765021321322</v>
-      </c>
-      <c r="H52" t="n">
         <v>2</v>
       </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2181,18 +2201,15 @@
         <v>1.501</v>
       </c>
       <c r="G53" t="n">
-        <v>144.765021321322</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2214,18 +2231,15 @@
         <v>1.7165</v>
       </c>
       <c r="G54" t="n">
-        <v>146.481521321322</v>
-      </c>
-      <c r="H54" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2247,18 +2261,15 @@
         <v>0.07000709723200001</v>
       </c>
       <c r="G55" t="n">
-        <v>146.551528418554</v>
-      </c>
-      <c r="H55" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2280,18 +2291,15 @@
         <v>1.1481</v>
       </c>
       <c r="G56" t="n">
-        <v>146.551528418554</v>
-      </c>
-      <c r="H56" t="n">
         <v>2</v>
       </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2313,18 +2321,15 @@
         <v>2.88</v>
       </c>
       <c r="G57" t="n">
-        <v>149.431528418554</v>
-      </c>
-      <c r="H57" t="n">
         <v>2</v>
       </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2346,18 +2351,15 @@
         <v>2.0271</v>
       </c>
       <c r="G58" t="n">
-        <v>147.404428418554</v>
-      </c>
-      <c r="H58" t="n">
         <v>2</v>
       </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2379,18 +2381,15 @@
         <v>0.1</v>
       </c>
       <c r="G59" t="n">
-        <v>147.304428418554</v>
-      </c>
-      <c r="H59" t="n">
         <v>2</v>
       </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2412,18 +2411,15 @@
         <v>0.1</v>
       </c>
       <c r="G60" t="n">
-        <v>147.404428418554</v>
-      </c>
-      <c r="H60" t="n">
         <v>2</v>
       </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2445,18 +2441,15 @@
         <v>0.5123</v>
       </c>
       <c r="G61" t="n">
-        <v>146.892128418554</v>
-      </c>
-      <c r="H61" t="n">
         <v>2</v>
       </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2478,18 +2471,15 @@
         <v>2.0271</v>
       </c>
       <c r="G62" t="n">
-        <v>148.919228418554</v>
-      </c>
-      <c r="H62" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2511,18 +2501,15 @@
         <v>1.935</v>
       </c>
       <c r="G63" t="n">
-        <v>150.854228418554</v>
-      </c>
-      <c r="H63" t="n">
         <v>2</v>
       </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2544,18 +2531,15 @@
         <v>0.967</v>
       </c>
       <c r="G64" t="n">
-        <v>150.854228418554</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2577,18 +2561,15 @@
         <v>14.6</v>
       </c>
       <c r="G65" t="n">
-        <v>165.454228418554</v>
-      </c>
-      <c r="H65" t="n">
         <v>2</v>
       </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2610,18 +2591,15 @@
         <v>4.649</v>
       </c>
       <c r="G66" t="n">
-        <v>165.454228418554</v>
-      </c>
-      <c r="H66" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2643,18 +2621,15 @@
         <v>1.3197</v>
       </c>
       <c r="G67" t="n">
-        <v>165.454228418554</v>
-      </c>
-      <c r="H67" t="n">
         <v>2</v>
       </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2676,18 +2651,15 @@
         <v>4.5173</v>
       </c>
       <c r="G68" t="n">
-        <v>165.454228418554</v>
-      </c>
-      <c r="H68" t="n">
         <v>2</v>
       </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2709,18 +2681,15 @@
         <v>3.0247</v>
       </c>
       <c r="G69" t="n">
-        <v>165.454228418554</v>
-      </c>
-      <c r="H69" t="n">
         <v>2</v>
       </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2742,18 +2711,15 @@
         <v>1.8143</v>
       </c>
       <c r="G70" t="n">
-        <v>165.454228418554</v>
-      </c>
-      <c r="H70" t="n">
         <v>2</v>
       </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2775,18 +2741,15 @@
         <v>1.334</v>
       </c>
       <c r="G71" t="n">
-        <v>166.788228418554</v>
-      </c>
-      <c r="H71" t="n">
         <v>2</v>
       </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2808,18 +2771,15 @@
         <v>5.3551</v>
       </c>
       <c r="G72" t="n">
-        <v>161.433128418554</v>
-      </c>
-      <c r="H72" t="n">
         <v>2</v>
       </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2841,18 +2801,15 @@
         <v>2.4807</v>
       </c>
       <c r="G73" t="n">
-        <v>158.952428418554</v>
-      </c>
-      <c r="H73" t="n">
         <v>2</v>
       </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2874,18 +2831,15 @@
         <v>1.225</v>
       </c>
       <c r="G74" t="n">
-        <v>157.727428418554</v>
-      </c>
-      <c r="H74" t="n">
         <v>2</v>
       </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2907,18 +2861,15 @@
         <v>0.5</v>
       </c>
       <c r="G75" t="n">
-        <v>157.227428418554</v>
-      </c>
-      <c r="H75" t="n">
         <v>2</v>
       </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2940,18 +2891,15 @@
         <v>34.32</v>
       </c>
       <c r="G76" t="n">
-        <v>122.907428418554</v>
-      </c>
-      <c r="H76" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2973,18 +2921,15 @@
         <v>9.633599999999999</v>
       </c>
       <c r="G77" t="n">
-        <v>132.541028418554</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3006,18 +2951,15 @@
         <v>0.68</v>
       </c>
       <c r="G78" t="n">
-        <v>131.861028418554</v>
-      </c>
-      <c r="H78" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3039,18 +2981,15 @@
         <v>0.68</v>
       </c>
       <c r="G79" t="n">
-        <v>132.541028418554</v>
-      </c>
-      <c r="H79" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3072,18 +3011,15 @@
         <v>2.3551</v>
       </c>
       <c r="G80" t="n">
-        <v>130.185928418554</v>
-      </c>
-      <c r="H80" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3105,18 +3041,15 @@
         <v>1.023</v>
       </c>
       <c r="G81" t="n">
-        <v>131.208928418554</v>
-      </c>
-      <c r="H81" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3138,18 +3071,15 @@
         <v>1.963</v>
       </c>
       <c r="G82" t="n">
-        <v>129.245928418554</v>
-      </c>
-      <c r="H82" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3171,18 +3101,15 @@
         <v>2</v>
       </c>
       <c r="G83" t="n">
-        <v>127.245928418554</v>
-      </c>
-      <c r="H83" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3204,18 +3131,15 @@
         <v>0.348</v>
       </c>
       <c r="G84" t="n">
-        <v>127.245928418554</v>
-      </c>
-      <c r="H84" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3237,18 +3161,15 @@
         <v>42.1562</v>
       </c>
       <c r="G85" t="n">
-        <v>127.245928418554</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3270,18 +3191,15 @@
         <v>0.85</v>
       </c>
       <c r="G86" t="n">
-        <v>126.395928418554</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3303,18 +3221,15 @@
         <v>1.06</v>
       </c>
       <c r="G87" t="n">
-        <v>125.335928418554</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3336,18 +3251,15 @@
         <v>6.4512</v>
       </c>
       <c r="G88" t="n">
-        <v>125.335928418554</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3369,18 +3281,15 @@
         <v>3.138</v>
       </c>
       <c r="G89" t="n">
-        <v>122.197928418554</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3402,18 +3311,15 @@
         <v>2.7573</v>
       </c>
       <c r="G90" t="n">
-        <v>124.955228418554</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3435,18 +3341,15 @@
         <v>0.0483</v>
       </c>
       <c r="G91" t="n">
-        <v>125.003528418554</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3468,18 +3371,15 @@
         <v>1.4929</v>
       </c>
       <c r="G92" t="n">
-        <v>123.510628418554</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3501,18 +3401,15 @@
         <v>2.4788</v>
       </c>
       <c r="G93" t="n">
-        <v>121.031828418554</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3534,18 +3431,15 @@
         <v>1.644</v>
       </c>
       <c r="G94" t="n">
-        <v>119.387828418554</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3567,18 +3461,15 @@
         <v>0.046353790613</v>
       </c>
       <c r="G95" t="n">
-        <v>119.434182209167</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3600,18 +3491,15 @@
         <v>4.1469</v>
       </c>
       <c r="G96" t="n">
-        <v>115.287282209167</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3633,18 +3521,15 @@
         <v>0.6645</v>
       </c>
       <c r="G97" t="n">
-        <v>115.951782209167</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3666,18 +3551,15 @@
         <v>2.0662</v>
       </c>
       <c r="G98" t="n">
-        <v>118.017982209167</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3699,18 +3581,15 @@
         <v>0.6091</v>
       </c>
       <c r="G99" t="n">
-        <v>118.017982209167</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3732,18 +3611,15 @@
         <v>0.1</v>
       </c>
       <c r="G100" t="n">
-        <v>117.917982209167</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3765,18 +3641,15 @@
         <v>2.4662</v>
       </c>
       <c r="G101" t="n">
-        <v>120.384182209167</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3798,18 +3671,15 @@
         <v>1.16</v>
       </c>
       <c r="G102" t="n">
-        <v>121.544182209167</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3831,18 +3701,15 @@
         <v>2.08</v>
       </c>
       <c r="G103" t="n">
-        <v>123.624182209167</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3864,18 +3731,15 @@
         <v>0.1</v>
       </c>
       <c r="G104" t="n">
-        <v>123.724182209167</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3897,18 +3761,15 @@
         <v>0.1</v>
       </c>
       <c r="G105" t="n">
-        <v>123.824182209167</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3930,18 +3791,15 @@
         <v>0.5392</v>
       </c>
       <c r="G106" t="n">
-        <v>123.824182209167</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3963,18 +3821,15 @@
         <v>0.015</v>
       </c>
       <c r="G107" t="n">
-        <v>123.809182209167</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3996,18 +3851,15 @@
         <v>1.1712</v>
       </c>
       <c r="G108" t="n">
-        <v>124.980382209167</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4029,18 +3881,15 @@
         <v>0.2223</v>
       </c>
       <c r="G109" t="n">
-        <v>125.202682209167</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4062,18 +3911,15 @@
         <v>5.6173</v>
       </c>
       <c r="G110" t="n">
-        <v>119.585382209167</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4095,18 +3941,15 @@
         <v>0.029787234042</v>
       </c>
       <c r="G111" t="n">
-        <v>119.615169443209</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4128,18 +3971,15 @@
         <v>0.2</v>
       </c>
       <c r="G112" t="n">
-        <v>119.415169443209</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4161,18 +4001,15 @@
         <v>0.029914529914</v>
       </c>
       <c r="G113" t="n">
-        <v>119.445083973123</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4194,18 +4031,15 @@
         <v>0.04</v>
       </c>
       <c r="G114" t="n">
-        <v>119.405083973123</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4227,18 +4061,15 @@
         <v>1.9298</v>
       </c>
       <c r="G115" t="n">
-        <v>117.475283973123</v>
-      </c>
-      <c r="H115" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4260,18 +4091,15 @@
         <v>0.1461</v>
       </c>
       <c r="G116" t="n">
-        <v>117.329183973123</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4293,18 +4121,15 @@
         <v>0.031742857142</v>
       </c>
       <c r="G117" t="n">
-        <v>117.360926830265</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4326,18 +4151,15 @@
         <v>1.7278</v>
       </c>
       <c r="G118" t="n">
-        <v>115.633126830265</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4359,18 +4181,15 @@
         <v>0.8189</v>
       </c>
       <c r="G119" t="n">
-        <v>115.633126830265</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4392,18 +4211,15 @@
         <v>1.4523</v>
       </c>
       <c r="G120" t="n">
-        <v>114.180826830265</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4425,18 +4241,15 @@
         <v>0.9899</v>
       </c>
       <c r="G121" t="n">
-        <v>114.180826830265</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4458,18 +4271,15 @@
         <v>0.2</v>
       </c>
       <c r="G122" t="n">
-        <v>114.380826830265</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4491,18 +4301,15 @@
         <v>23.4</v>
       </c>
       <c r="G123" t="n">
-        <v>137.780826830265</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4524,18 +4331,15 @@
         <v>0.0315625</v>
       </c>
       <c r="G124" t="n">
-        <v>137.812389330265</v>
-      </c>
-      <c r="H124" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4557,18 +4361,15 @@
         <v>1.4999</v>
       </c>
       <c r="G125" t="n">
-        <v>139.312289330265</v>
-      </c>
-      <c r="H125" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
